--- a/Plan_Crawl/Plan.xlsx
+++ b/Plan_Crawl/Plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -28,16 +28,22 @@
     <t xml:space="preserve">Web</t>
   </si>
   <si>
+    <t xml:space="preserve">Hiện tại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiếp tục</t>
+  </si>
+  <si>
     <t xml:space="preserve">Điện tử - điện lạnh</t>
   </si>
   <si>
     <t xml:space="preserve">mediamart, sendo</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viễn thông</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Du lịch - Vận tải</t>
@@ -118,6 +124,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -203,17 +210,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,163 +230,181 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
